--- a/Code/Results/Cases/Case_5_250/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_250/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.117862761042289</v>
+        <v>0.8163891899954194</v>
       </c>
       <c r="C2">
-        <v>0.1112892376191823</v>
+        <v>0.1363548090430484</v>
       </c>
       <c r="D2">
-        <v>0.07975197966124625</v>
+        <v>0.1124083216962717</v>
       </c>
       <c r="E2">
-        <v>0.0603248151847815</v>
+        <v>0.1353499340762969</v>
       </c>
       <c r="F2">
-        <v>1.022194511371332</v>
+        <v>2.131864999578369</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.07661369411027152</v>
+        <v>0.1908525536553292</v>
       </c>
       <c r="K2">
-        <v>0.90617738512492</v>
+        <v>0.4121628667790844</v>
       </c>
       <c r="L2">
-        <v>0.1823314179124651</v>
+        <v>0.2484800205766007</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.712685363712353</v>
+        <v>5.740659178069961</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.975405481337333</v>
+        <v>0.7785231929979091</v>
       </c>
       <c r="C3">
-        <v>0.1096219334970669</v>
+        <v>0.1356897337931429</v>
       </c>
       <c r="D3">
-        <v>0.07145213556837859</v>
+        <v>0.1105904294790534</v>
       </c>
       <c r="E3">
-        <v>0.05817826186995312</v>
+        <v>0.1354456548796019</v>
       </c>
       <c r="F3">
-        <v>1.009457754780733</v>
+        <v>2.141136752964243</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.07745813221916009</v>
+        <v>0.1919772027745168</v>
       </c>
       <c r="K3">
-        <v>0.7874986287214654</v>
+        <v>0.3778670620412754</v>
       </c>
       <c r="L3">
-        <v>0.1637004166114835</v>
+        <v>0.2445345036909288</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.709029913860604</v>
+        <v>5.773909290133929</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8883419564619999</v>
+        <v>0.7555567052493188</v>
       </c>
       <c r="C4">
-        <v>0.1086158157187853</v>
+        <v>0.1352854131634018</v>
       </c>
       <c r="D4">
-        <v>0.06640082077223752</v>
+        <v>0.1095130407301568</v>
       </c>
       <c r="E4">
-        <v>0.05692254912623973</v>
+        <v>0.1355497092653906</v>
       </c>
       <c r="F4">
-        <v>1.003222073162448</v>
+        <v>2.147739748512365</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07806650793148151</v>
+        <v>0.1927271816334795</v>
       </c>
       <c r="K4">
-        <v>0.7147710666095293</v>
+        <v>0.3568920994117377</v>
       </c>
       <c r="L4">
-        <v>0.1523877830221636</v>
+        <v>0.2422055216404431</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.711258950610187</v>
+        <v>5.796805925111329</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8529505806214672</v>
+        <v>0.7462696617940878</v>
       </c>
       <c r="C5">
-        <v>0.108210079363424</v>
+        <v>0.135121686754772</v>
       </c>
       <c r="D5">
-        <v>0.06435284846578782</v>
+        <v>0.109083814570063</v>
       </c>
       <c r="E5">
-        <v>0.05642597799387694</v>
+        <v>0.1356035281034735</v>
       </c>
       <c r="F5">
-        <v>1.001065069642102</v>
+        <v>2.150659589764587</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07833651506244976</v>
+        <v>0.1930477719999253</v>
       </c>
       <c r="K5">
-        <v>0.6851588034467113</v>
+        <v>0.3483660032229352</v>
       </c>
       <c r="L5">
-        <v>0.1478073912146485</v>
+        <v>0.2412800890201794</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.713252447595153</v>
+        <v>5.806760723277108</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8470787639620028</v>
+        <v>0.7447319245639505</v>
       </c>
       <c r="C6">
-        <v>0.1081429601932342</v>
+        <v>0.1350945634260299</v>
       </c>
       <c r="D6">
-        <v>0.06401339482872004</v>
+        <v>0.1090131366978753</v>
       </c>
       <c r="E6">
-        <v>0.0563444225787908</v>
+        <v>0.1356131550350099</v>
       </c>
       <c r="F6">
-        <v>1.000729690518547</v>
+        <v>2.15115826857398</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07838266910013125</v>
+        <v>0.1931019104365053</v>
       </c>
       <c r="K6">
-        <v>0.6802429039245652</v>
+        <v>0.3469515584799012</v>
       </c>
       <c r="L6">
-        <v>0.1470485432115325</v>
+        <v>0.2411278532071535</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.71364788040168</v>
+        <v>5.808451423383787</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8878643191856099</v>
+        <v>0.7554311644958887</v>
       </c>
       <c r="C7">
-        <v>0.1086103267555245</v>
+        <v>0.1352832008621334</v>
       </c>
       <c r="D7">
-        <v>0.06637315968587387</v>
+        <v>0.1095072122001213</v>
       </c>
       <c r="E7">
-        <v>0.05691579155223181</v>
+        <v>0.1355503888234537</v>
       </c>
       <c r="F7">
-        <v>1.00319144643943</v>
+        <v>2.14777819874611</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07807006056521359</v>
+        <v>0.1927314445944752</v>
       </c>
       <c r="K7">
-        <v>0.7143716186653677</v>
+        <v>0.3567770262330043</v>
       </c>
       <c r="L7">
-        <v>0.1523258933736429</v>
+        <v>0.2421929450362228</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.711281493014241</v>
+        <v>5.79693765100086</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.068650347356254</v>
+        <v>0.8032745992380512</v>
       </c>
       <c r="C8">
-        <v>0.1107105917266082</v>
+        <v>0.1361246659011002</v>
       </c>
       <c r="D8">
-        <v>0.07688039826581416</v>
+        <v>0.1117734942698903</v>
       </c>
       <c r="E8">
-        <v>0.05957143678308263</v>
+        <v>0.1353735578866875</v>
       </c>
       <c r="F8">
-        <v>1.017465071676149</v>
+        <v>2.134873135262595</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07688588345344982</v>
+        <v>0.1912280087188556</v>
       </c>
       <c r="K8">
-        <v>0.8652208059588418</v>
+        <v>0.4003208068206163</v>
       </c>
       <c r="L8">
-        <v>0.1758796841217745</v>
+        <v>0.2471002505861719</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.710471954906524</v>
+        <v>5.75160912590465</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.427094992240797</v>
+        <v>0.8993173966392192</v>
       </c>
       <c r="C9">
-        <v>0.1149773196286503</v>
+        <v>0.1378059466884238</v>
       </c>
       <c r="D9">
-        <v>0.09787957450832607</v>
+        <v>0.1165232029738092</v>
       </c>
       <c r="E9">
-        <v>0.06529827574872371</v>
+        <v>0.1353848802571491</v>
       </c>
       <c r="F9">
-        <v>1.058717516042961</v>
+        <v>2.116779194887329</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.07530135235186464</v>
+        <v>0.1887504721540338</v>
       </c>
       <c r="K9">
-        <v>1.162693268000766</v>
+        <v>0.4863472631274988</v>
       </c>
       <c r="L9">
-        <v>0.2231877458599314</v>
+        <v>0.2574616504631564</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.746274801898778</v>
+        <v>5.682390175139659</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.693902235611745</v>
+        <v>0.9712067489243736</v>
       </c>
       <c r="C10">
-        <v>0.1182154420383625</v>
+        <v>0.139059159465198</v>
       </c>
       <c r="D10">
-        <v>0.113606957598563</v>
+        <v>0.1201963663012577</v>
       </c>
       <c r="E10">
-        <v>0.06985936992518305</v>
+        <v>0.1356100221079544</v>
       </c>
       <c r="F10">
-        <v>1.098126143274612</v>
+        <v>2.107872960373726</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07462280064347127</v>
+        <v>0.1872159293004962</v>
       </c>
       <c r="K10">
-        <v>1.383068105125659</v>
+        <v>0.5499193840907424</v>
       </c>
       <c r="L10">
-        <v>0.2587964369722755</v>
+        <v>0.2655193970175418</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.798169809979299</v>
+        <v>5.643509214706143</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.816286293002605</v>
+        <v>1.004193762960426</v>
       </c>
       <c r="C11">
-        <v>0.119714226675498</v>
+        <v>0.1396329762811064</v>
       </c>
       <c r="D11">
-        <v>0.120840766259974</v>
+        <v>0.1219066955654426</v>
       </c>
       <c r="E11">
-        <v>0.07201990376925593</v>
+        <v>0.1357592229803934</v>
       </c>
       <c r="F11">
-        <v>1.118271567252904</v>
+        <v>2.10477201346977</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07442807704961751</v>
+        <v>0.1865796027802169</v>
       </c>
       <c r="K11">
-        <v>1.483913060918098</v>
+        <v>0.5789161876817843</v>
       </c>
       <c r="L11">
-        <v>0.2752210498349115</v>
+        <v>0.269280802383264</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.828000329015339</v>
+        <v>5.628417951334853</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.862797918352072</v>
+        <v>1.016725329855802</v>
       </c>
       <c r="C12">
-        <v>0.1202857697003878</v>
+        <v>0.1398507815750278</v>
       </c>
       <c r="D12">
-        <v>0.1235926512452608</v>
+        <v>0.1225599617791318</v>
       </c>
       <c r="E12">
-        <v>0.07285113563235868</v>
+        <v>0.1358224212377515</v>
       </c>
       <c r="F12">
-        <v>1.126240665239777</v>
+        <v>2.103734270774765</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.0267246236506935</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.07437149108359264</v>
+        <v>0.1863475007573214</v>
       </c>
       <c r="K12">
-        <v>1.522203148502257</v>
+        <v>0.5899072071807439</v>
       </c>
       <c r="L12">
-        <v>0.2814766764275021</v>
+        <v>0.2707188374277365</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.840250949956186</v>
+        <v>5.623076264522723</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.852772994663354</v>
+        <v>1.01402466138137</v>
       </c>
       <c r="C13">
-        <v>0.1201624956266087</v>
+        <v>0.1398038508283577</v>
       </c>
       <c r="D13">
-        <v>0.1229994034218862</v>
+        <v>0.12241902106922</v>
       </c>
       <c r="E13">
-        <v>0.072671520297515</v>
+        <v>0.1358085128649442</v>
       </c>
       <c r="F13">
-        <v>1.124508876933987</v>
+        <v>2.10395169821301</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0743829023069047</v>
+        <v>0.1863970942667592</v>
       </c>
       <c r="K13">
-        <v>1.51395186444023</v>
+        <v>0.5875396342047168</v>
       </c>
       <c r="L13">
-        <v>0.2801277569460581</v>
+        <v>0.2704085246294312</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.83756911613753</v>
+        <v>5.624210104756969</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.820109345475572</v>
+        <v>1.005223943210154</v>
       </c>
       <c r="C14">
-        <v>0.1197611662675797</v>
+        <v>0.1396508850920526</v>
       </c>
       <c r="D14">
-        <v>0.1210669058907428</v>
+        <v>0.121960328261693</v>
       </c>
       <c r="E14">
-        <v>0.07208802291247096</v>
+        <v>0.135764288239816</v>
       </c>
       <c r="F14">
-        <v>1.118920237913116</v>
+        <v>2.104683902682709</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.07442307337158383</v>
+        <v>0.1865603301204821</v>
       </c>
       <c r="K14">
-        <v>1.487061059343944</v>
+        <v>0.5798202172128128</v>
       </c>
       <c r="L14">
-        <v>0.2757349620542016</v>
+        <v>0.2693988370462108</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.828988710054574</v>
+        <v>5.627971012484636</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.800124400215481</v>
+        <v>0.9998384488271199</v>
       </c>
       <c r="C15">
-        <v>0.1195158683652338</v>
+        <v>0.1395572553574738</v>
       </c>
       <c r="D15">
-        <v>0.1198848727753585</v>
+        <v>0.1216800933217712</v>
       </c>
       <c r="E15">
-        <v>0.07173234150898367</v>
+        <v>0.1357380709686531</v>
       </c>
       <c r="F15">
-        <v>1.115542036813864</v>
+        <v>2.105150172813666</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.07444993657248844</v>
+        <v>0.1866614702342737</v>
       </c>
       <c r="K15">
-        <v>1.4706035027165</v>
+        <v>0.5750932090996912</v>
       </c>
       <c r="L15">
-        <v>0.2730490417430502</v>
+        <v>0.2687821513298303</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.823859101277861</v>
+        <v>5.630323251768203</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.685926351434176</v>
+        <v>0.9690566230878517</v>
       </c>
       <c r="C16">
-        <v>0.1181180346835831</v>
+        <v>0.1390217322228864</v>
       </c>
       <c r="D16">
-        <v>0.1131359075661891</v>
+        <v>0.1200853795258894</v>
       </c>
       <c r="E16">
-        <v>0.0697199621200113</v>
+        <v>0.1356012104583755</v>
       </c>
       <c r="F16">
-        <v>1.096856031666775</v>
+        <v>2.108094727519884</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.07463788355106971</v>
+        <v>0.1872587556736214</v>
       </c>
       <c r="K16">
-        <v>1.376491027576719</v>
+        <v>0.548025884423879</v>
       </c>
       <c r="L16">
-        <v>0.257727890106338</v>
+        <v>0.2652754999740523</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.796350538577457</v>
+        <v>5.644547679711621</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.616143854116331</v>
+        <v>0.9502452119734812</v>
       </c>
       <c r="C17">
-        <v>0.1172672971285849</v>
+        <v>0.1386941440702003</v>
       </c>
       <c r="D17">
-        <v>0.1090167781794804</v>
+        <v>0.1191171182201174</v>
       </c>
       <c r="E17">
-        <v>0.06850790327477441</v>
+        <v>0.1355292130800052</v>
       </c>
       <c r="F17">
-        <v>1.085975738446663</v>
+        <v>2.11014445369581</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.07478289731492538</v>
+        <v>0.1876409725558581</v>
       </c>
       <c r="K17">
-        <v>1.318920033767</v>
+        <v>0.5314403941825958</v>
       </c>
       <c r="L17">
-        <v>0.2483891519503203</v>
+        <v>0.2631487607041691</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.781109913904601</v>
+        <v>5.653938603798679</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.576100667565555</v>
+        <v>0.939452180469857</v>
       </c>
       <c r="C18">
-        <v>0.1167803803276115</v>
+        <v>0.1385060758654078</v>
       </c>
       <c r="D18">
-        <v>0.1066549560963779</v>
+        <v>0.1185639111143075</v>
       </c>
       <c r="E18">
-        <v>0.06781877391912161</v>
+        <v>0.1354922071839759</v>
       </c>
       <c r="F18">
-        <v>1.079925101210492</v>
+        <v>2.111412881729734</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.07487698237399698</v>
+        <v>0.1878666263606199</v>
       </c>
       <c r="K18">
-        <v>1.28586168576436</v>
+        <v>0.5219081911350258</v>
       </c>
       <c r="L18">
-        <v>0.243038810328855</v>
+        <v>0.2619345497111283</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.772925862239646</v>
+        <v>5.659584365652876</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.562558211821198</v>
+        <v>0.9358024708086248</v>
       </c>
       <c r="C19">
-        <v>0.1166159234857815</v>
+        <v>0.1384424603107632</v>
       </c>
       <c r="D19">
-        <v>0.1058565184313238</v>
+        <v>0.1183772439984665</v>
       </c>
       <c r="E19">
-        <v>0.06758680061354383</v>
+        <v>0.1354804350614316</v>
       </c>
       <c r="F19">
-        <v>1.07791145343549</v>
+        <v>2.111857723036636</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.07491064926250601</v>
+        <v>0.1879440277535629</v>
       </c>
       <c r="K19">
-        <v>1.274677649259644</v>
+        <v>0.5186820282750659</v>
       </c>
       <c r="L19">
-        <v>0.2412307905707394</v>
+        <v>0.2615249937675372</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.770253086800466</v>
+        <v>5.661537898328874</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.623562452353326</v>
+        <v>0.9522449512081721</v>
       </c>
       <c r="C20">
-        <v>0.1173576087187413</v>
+        <v>0.1387289801362215</v>
       </c>
       <c r="D20">
-        <v>0.1094544931176529</v>
+        <v>0.1192198076490882</v>
       </c>
       <c r="E20">
-        <v>0.06863609411978899</v>
+        <v>0.1355364216177932</v>
       </c>
       <c r="F20">
-        <v>1.087112346211796</v>
+        <v>2.109916997244909</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.07476634994762676</v>
+        <v>0.1875996834465177</v>
       </c>
       <c r="K20">
-        <v>1.325042758786765</v>
+        <v>0.5332051933440312</v>
       </c>
       <c r="L20">
-        <v>0.2493810731953232</v>
+        <v>0.2633742216803512</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.782671656431262</v>
+        <v>5.652913636230409</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.829698724195367</v>
+        <v>1.007807845237124</v>
       </c>
       <c r="C21">
-        <v>0.1198789358687691</v>
+        <v>0.1396958010822829</v>
       </c>
       <c r="D21">
-        <v>0.1216341754462036</v>
+        <v>0.1220949059279945</v>
       </c>
       <c r="E21">
-        <v>0.07225904877068245</v>
+        <v>0.1357770964961134</v>
       </c>
       <c r="F21">
-        <v>1.120552337872653</v>
+        <v>2.104465132748146</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.07441080230353947</v>
+        <v>0.1865121434491606</v>
       </c>
       <c r="K21">
-        <v>1.49495662526104</v>
+        <v>0.5820873152120214</v>
       </c>
       <c r="L21">
-        <v>0.2770242268957332</v>
+        <v>0.269695036631262</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.831482584005187</v>
+        <v>5.626856220217491</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.965408004703704</v>
+        <v>1.044354791962178</v>
       </c>
       <c r="C22">
-        <v>0.1215501514704513</v>
+        <v>0.1403306563405735</v>
       </c>
       <c r="D22">
-        <v>0.129668349012519</v>
+        <v>0.1240065706503941</v>
       </c>
       <c r="E22">
-        <v>0.07470351894889049</v>
+        <v>0.1359734260366139</v>
       </c>
       <c r="F22">
-        <v>1.144402864338815</v>
+        <v>2.101697680817722</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.07427879818182248</v>
+        <v>0.1858530138102381</v>
       </c>
       <c r="K22">
-        <v>1.606610057013114</v>
+        <v>0.6140958834581056</v>
       </c>
       <c r="L22">
-        <v>0.2953021538914129</v>
+        <v>0.2739056939459488</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.868977377974346</v>
+        <v>5.612000486694683</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.892879404402493</v>
+        <v>1.024827896290589</v>
       </c>
       <c r="C23">
-        <v>0.1206559523371666</v>
+        <v>0.1399915565689085</v>
       </c>
       <c r="D23">
-        <v>0.1253731691950293</v>
+        <v>0.122983314897624</v>
       </c>
       <c r="E23">
-        <v>0.07339157830006116</v>
+        <v>0.1358650788911113</v>
       </c>
       <c r="F23">
-        <v>1.131483297097333</v>
+        <v>2.103101975023009</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.07433980081083646</v>
+        <v>0.1862000844381839</v>
       </c>
       <c r="K23">
-        <v>1.546957325361973</v>
+        <v>0.5970068954903525</v>
       </c>
       <c r="L23">
-        <v>0.2855263103789696</v>
+        <v>0.2716511385668383</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.848433040835033</v>
+        <v>5.619730401523356</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.620208269935915</v>
+        <v>0.9513408008293993</v>
       </c>
       <c r="C24">
-        <v>0.1173167720685129</v>
+        <v>0.1387132299188849</v>
       </c>
       <c r="D24">
-        <v>0.1092565825968137</v>
+        <v>0.1191733709794818</v>
       </c>
       <c r="E24">
-        <v>0.06857811511401124</v>
+        <v>0.1355331489729252</v>
       </c>
       <c r="F24">
-        <v>1.086597850201017</v>
+        <v>2.110019549906681</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.07477379769569481</v>
+        <v>0.1876183318357718</v>
       </c>
       <c r="K24">
-        <v>1.322274551512777</v>
+        <v>0.5324073182047186</v>
       </c>
       <c r="L24">
-        <v>0.2489325678529326</v>
+        <v>0.2632722643515422</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.781963796789853</v>
+        <v>5.653376255292017</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.329600415882652</v>
+        <v>0.8731002884531733</v>
       </c>
       <c r="C25">
-        <v>0.1138059215196208</v>
+        <v>0.1373478857393025</v>
       </c>
       <c r="D25">
-        <v>0.09215066156468055</v>
+        <v>0.1152058520584163</v>
       </c>
       <c r="E25">
-        <v>0.06368974176410092</v>
+        <v>0.1353436344024033</v>
       </c>
       <c r="F25">
-        <v>1.046036873770255</v>
+        <v>2.120902909898206</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.02672462365057982</v>
+        <v>0.07973214163530429</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.07564746834702873</v>
+        <v>0.1893704493167796</v>
       </c>
       <c r="K25">
-        <v>1.08196123047523</v>
+        <v>0.4630086826598756</v>
       </c>
       <c r="L25">
-        <v>0.2102530406961591</v>
+        <v>0.2545800857199652</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.732308419655197</v>
+        <v>5.699011697198699</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_250/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_250/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8163891899954194</v>
+        <v>1.117862761042488</v>
       </c>
       <c r="C2">
-        <v>0.1363548090430484</v>
+        <v>0.1112892376195163</v>
       </c>
       <c r="D2">
-        <v>0.1124083216962717</v>
+        <v>0.07975197966124625</v>
       </c>
       <c r="E2">
-        <v>0.1353499340762969</v>
+        <v>0.0603248151847815</v>
       </c>
       <c r="F2">
-        <v>2.131864999578369</v>
+        <v>1.02219451137136</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1908525536553292</v>
+        <v>0.0766136941102431</v>
       </c>
       <c r="K2">
-        <v>0.4121628667790844</v>
+        <v>0.9061773851248063</v>
       </c>
       <c r="L2">
-        <v>0.2484800205766007</v>
+        <v>0.1823314179124722</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.740659178069961</v>
+        <v>2.712685363712382</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7785231929979091</v>
+        <v>0.9754054813372761</v>
       </c>
       <c r="C3">
-        <v>0.1356897337931429</v>
+        <v>0.1096219334974151</v>
       </c>
       <c r="D3">
-        <v>0.1105904294790534</v>
+        <v>0.07145213556831465</v>
       </c>
       <c r="E3">
-        <v>0.1354456548796019</v>
+        <v>0.05817826186995134</v>
       </c>
       <c r="F3">
-        <v>2.141136752964243</v>
+        <v>1.009457754780726</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1919772027745168</v>
+        <v>0.07745813221922404</v>
       </c>
       <c r="K3">
-        <v>0.3778670620412754</v>
+        <v>0.7874986287214654</v>
       </c>
       <c r="L3">
-        <v>0.2445345036909288</v>
+        <v>0.1637004166115901</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>5.773909290133929</v>
+        <v>2.709029913860576</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7555567052493188</v>
+        <v>0.8883419564621704</v>
       </c>
       <c r="C4">
-        <v>0.1352854131634018</v>
+        <v>0.1086158157185437</v>
       </c>
       <c r="D4">
-        <v>0.1095130407301568</v>
+        <v>0.06640082077223042</v>
       </c>
       <c r="E4">
-        <v>0.1355497092653906</v>
+        <v>0.05692254912623618</v>
       </c>
       <c r="F4">
-        <v>2.147739748512365</v>
+        <v>1.003222073162426</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1927271816334795</v>
+        <v>0.07806650793147796</v>
       </c>
       <c r="K4">
-        <v>0.3568920994117377</v>
+        <v>0.714771066609373</v>
       </c>
       <c r="L4">
-        <v>0.2422055216404431</v>
+        <v>0.1523877830222489</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>5.796805925111329</v>
+        <v>2.71125895061013</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7462696617940878</v>
+        <v>0.8529505806213535</v>
       </c>
       <c r="C5">
-        <v>0.135121686754772</v>
+        <v>0.1082100793636656</v>
       </c>
       <c r="D5">
-        <v>0.109083814570063</v>
+        <v>0.06435284846565992</v>
       </c>
       <c r="E5">
-        <v>0.1356035281034735</v>
+        <v>0.05642597799387872</v>
       </c>
       <c r="F5">
-        <v>2.150659589764587</v>
+        <v>1.001065069642095</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1930477719999253</v>
+        <v>0.07833651506249772</v>
       </c>
       <c r="K5">
-        <v>0.3483660032229352</v>
+        <v>0.6851588034466971</v>
       </c>
       <c r="L5">
-        <v>0.2412800890201794</v>
+        <v>0.1478073912146698</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>5.806760723277108</v>
+        <v>2.713252447595153</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7447319245639505</v>
+        <v>0.8470787639620312</v>
       </c>
       <c r="C6">
-        <v>0.1350945634260299</v>
+        <v>0.1081429601930068</v>
       </c>
       <c r="D6">
-        <v>0.1090131366978753</v>
+        <v>0.06401339482872714</v>
       </c>
       <c r="E6">
-        <v>0.1356131550350099</v>
+        <v>0.05634442257877659</v>
       </c>
       <c r="F6">
-        <v>2.15115826857398</v>
+        <v>1.000729690518526</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1931019104365053</v>
+        <v>0.07838266910020231</v>
       </c>
       <c r="K6">
-        <v>0.3469515584799012</v>
+        <v>0.6802429039245226</v>
       </c>
       <c r="L6">
-        <v>0.2411278532071535</v>
+        <v>0.1470485432114259</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>5.808451423383787</v>
+        <v>2.713647880401624</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7554311644958887</v>
+        <v>0.8878643191854962</v>
       </c>
       <c r="C7">
-        <v>0.1352832008621334</v>
+        <v>0.10861032675529</v>
       </c>
       <c r="D7">
-        <v>0.1095072122001213</v>
+        <v>0.06637315968579571</v>
       </c>
       <c r="E7">
-        <v>0.1355503888234537</v>
+        <v>0.05691579155223181</v>
       </c>
       <c r="F7">
-        <v>2.14777819874611</v>
+        <v>1.003191446439409</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1927314445944752</v>
+        <v>0.07807006056521004</v>
       </c>
       <c r="K7">
-        <v>0.3567770262330043</v>
+        <v>0.7143716186651687</v>
       </c>
       <c r="L7">
-        <v>0.2421929450362228</v>
+        <v>0.1523258933736358</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>5.79693765100086</v>
+        <v>2.711281493014098</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8032745992380512</v>
+        <v>1.068650347356481</v>
       </c>
       <c r="C8">
-        <v>0.1361246659011002</v>
+        <v>0.1107105917268498</v>
       </c>
       <c r="D8">
-        <v>0.1117734942698903</v>
+        <v>0.07688039826593496</v>
       </c>
       <c r="E8">
-        <v>0.1353735578866875</v>
+        <v>0.05957143678308441</v>
       </c>
       <c r="F8">
-        <v>2.134873135262595</v>
+        <v>1.017465071676114</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1912280087188556</v>
+        <v>0.07688588345339298</v>
       </c>
       <c r="K8">
-        <v>0.4003208068206163</v>
+        <v>0.8652208059586712</v>
       </c>
       <c r="L8">
-        <v>0.2471002505861719</v>
+        <v>0.1758796841216395</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>5.75160912590465</v>
+        <v>2.71047195490641</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8993173966392192</v>
+        <v>1.427094992240939</v>
       </c>
       <c r="C9">
-        <v>0.1378059466884238</v>
+        <v>0.1149773196287569</v>
       </c>
       <c r="D9">
-        <v>0.1165232029738092</v>
+        <v>0.0978795745080987</v>
       </c>
       <c r="E9">
-        <v>0.1353848802571491</v>
+        <v>0.0652982757487095</v>
       </c>
       <c r="F9">
-        <v>2.116779194887329</v>
+        <v>1.058717516042954</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1887504721540338</v>
+        <v>0.07530135235186819</v>
       </c>
       <c r="K9">
-        <v>0.4863472631274988</v>
+        <v>1.162693268000709</v>
       </c>
       <c r="L9">
-        <v>0.2574616504631564</v>
+        <v>0.2231877458599456</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.682390175139659</v>
+        <v>2.74627480189875</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9712067489243736</v>
+        <v>1.69390223561166</v>
       </c>
       <c r="C10">
-        <v>0.139059159465198</v>
+        <v>0.1182154420379931</v>
       </c>
       <c r="D10">
-        <v>0.1201963663012577</v>
+        <v>0.1136069575987477</v>
       </c>
       <c r="E10">
-        <v>0.1356100221079544</v>
+        <v>0.0698593699251937</v>
       </c>
       <c r="F10">
-        <v>2.107872960373726</v>
+        <v>1.098126143274612</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1872159293004962</v>
+        <v>0.07462280064343219</v>
       </c>
       <c r="K10">
-        <v>0.5499193840907424</v>
+        <v>1.383068105125602</v>
       </c>
       <c r="L10">
-        <v>0.2655193970175418</v>
+        <v>0.2587964369721902</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.643509214706143</v>
+        <v>2.798169809979242</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.004193762960426</v>
+        <v>1.816286293002548</v>
       </c>
       <c r="C11">
-        <v>0.1396329762811064</v>
+        <v>0.1197142266753914</v>
       </c>
       <c r="D11">
-        <v>0.1219066955654426</v>
+        <v>0.1208407662597182</v>
       </c>
       <c r="E11">
-        <v>0.1357592229803934</v>
+        <v>0.07201990376928791</v>
       </c>
       <c r="F11">
-        <v>2.10477201346977</v>
+        <v>1.118271567252904</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1865796027802169</v>
+        <v>0.07442807704964949</v>
       </c>
       <c r="K11">
-        <v>0.5789161876817843</v>
+        <v>1.483913060918098</v>
       </c>
       <c r="L11">
-        <v>0.269280802383264</v>
+        <v>0.275221049834812</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.628417951334853</v>
+        <v>2.828000329015367</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.016725329855802</v>
+        <v>1.862797918352044</v>
       </c>
       <c r="C12">
-        <v>0.1398507815750278</v>
+        <v>0.1202857697006223</v>
       </c>
       <c r="D12">
-        <v>0.1225599617791318</v>
+        <v>0.1235926512451755</v>
       </c>
       <c r="E12">
-        <v>0.1358224212377515</v>
+        <v>0.07285113563236933</v>
       </c>
       <c r="F12">
-        <v>2.103734270774765</v>
+        <v>1.126240665239749</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.07973214163530429</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1863475007573214</v>
+        <v>0.07437149108358554</v>
       </c>
       <c r="K12">
-        <v>0.5899072071807439</v>
+        <v>1.522203148502427</v>
       </c>
       <c r="L12">
-        <v>0.2707188374277365</v>
+        <v>0.2814766764274879</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.623076264522723</v>
+        <v>2.840250949956186</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.01402466138137</v>
+        <v>1.852772994663354</v>
       </c>
       <c r="C13">
-        <v>0.1398038508283577</v>
+        <v>0.1201624956267295</v>
       </c>
       <c r="D13">
-        <v>0.12241902106922</v>
+        <v>0.1229994034217015</v>
       </c>
       <c r="E13">
-        <v>0.1358085128649442</v>
+        <v>0.072671520297515</v>
       </c>
       <c r="F13">
-        <v>2.10395169821301</v>
+        <v>1.124508876933987</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1863970942667592</v>
+        <v>0.07438290230689759</v>
       </c>
       <c r="K13">
-        <v>0.5875396342047168</v>
+        <v>1.513951864440173</v>
       </c>
       <c r="L13">
-        <v>0.2704085246294312</v>
+        <v>0.2801277569461291</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.624210104756969</v>
+        <v>2.837569116137445</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.005223943210154</v>
+        <v>1.820109345475629</v>
       </c>
       <c r="C14">
-        <v>0.1396508850920526</v>
+        <v>0.1197611662679208</v>
       </c>
       <c r="D14">
-        <v>0.121960328261693</v>
+        <v>0.1210669058908138</v>
       </c>
       <c r="E14">
-        <v>0.135764288239816</v>
+        <v>0.0720880229124603</v>
       </c>
       <c r="F14">
-        <v>2.104683902682709</v>
+        <v>1.11892023791313</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1865603301204821</v>
+        <v>0.07442307337165843</v>
       </c>
       <c r="K14">
-        <v>0.5798202172128128</v>
+        <v>1.487061059344001</v>
       </c>
       <c r="L14">
-        <v>0.2693988370462108</v>
+        <v>0.2757349620542158</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.627971012484636</v>
+        <v>2.828988710054603</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9998384488271199</v>
+        <v>1.800124400215594</v>
       </c>
       <c r="C15">
-        <v>0.1395572553574738</v>
+        <v>0.1195158683653617</v>
       </c>
       <c r="D15">
-        <v>0.1216800933217712</v>
+        <v>0.1198848727754722</v>
       </c>
       <c r="E15">
-        <v>0.1357380709686531</v>
+        <v>0.07173234150899077</v>
       </c>
       <c r="F15">
-        <v>2.105150172813666</v>
+        <v>1.115542036813864</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1866614702342737</v>
+        <v>0.07444993657252752</v>
       </c>
       <c r="K15">
-        <v>0.5750932090996912</v>
+        <v>1.470603502716386</v>
       </c>
       <c r="L15">
-        <v>0.2687821513298303</v>
+        <v>0.2730490417430076</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.630323251768203</v>
+        <v>2.823859101277861</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9690566230878517</v>
+        <v>1.685926351434262</v>
       </c>
       <c r="C16">
-        <v>0.1390217322228864</v>
+        <v>0.1181180346837039</v>
       </c>
       <c r="D16">
-        <v>0.1200853795258894</v>
+        <v>0.1131359075660754</v>
       </c>
       <c r="E16">
-        <v>0.1356012104583755</v>
+        <v>0.06971996212002907</v>
       </c>
       <c r="F16">
-        <v>2.108094727519884</v>
+        <v>1.096856031666746</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1872587556736214</v>
+        <v>0.07463788355110523</v>
       </c>
       <c r="K16">
-        <v>0.548025884423879</v>
+        <v>1.376491027576719</v>
       </c>
       <c r="L16">
-        <v>0.2652754999740523</v>
+        <v>0.2577278901064091</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.644547679711621</v>
+        <v>2.796350538577457</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9502452119734812</v>
+        <v>1.616143854116501</v>
       </c>
       <c r="C17">
-        <v>0.1386941440702003</v>
+        <v>0.1172672971288193</v>
       </c>
       <c r="D17">
-        <v>0.1191171182201174</v>
+        <v>0.1090167781796083</v>
       </c>
       <c r="E17">
-        <v>0.1355292130800052</v>
+        <v>0.06850790327474243</v>
       </c>
       <c r="F17">
-        <v>2.11014445369581</v>
+        <v>1.085975738446663</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1876409725558581</v>
+        <v>0.07478289731493248</v>
       </c>
       <c r="K17">
-        <v>0.5314403941825958</v>
+        <v>1.318920033766915</v>
       </c>
       <c r="L17">
-        <v>0.2631487607041691</v>
+        <v>0.2483891519503345</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5.653938603798679</v>
+        <v>2.781109913904544</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.939452180469857</v>
+        <v>1.576100667565555</v>
       </c>
       <c r="C18">
-        <v>0.1385060758654078</v>
+        <v>0.1167803803275973</v>
       </c>
       <c r="D18">
-        <v>0.1185639111143075</v>
+        <v>0.1066549560962642</v>
       </c>
       <c r="E18">
-        <v>0.1354922071839759</v>
+        <v>0.06781877391912516</v>
       </c>
       <c r="F18">
-        <v>2.111412881729734</v>
+        <v>1.079925101210492</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1878666263606199</v>
+        <v>0.07487698237397211</v>
       </c>
       <c r="K18">
-        <v>0.5219081911350258</v>
+        <v>1.285861685764303</v>
       </c>
       <c r="L18">
-        <v>0.2619345497111283</v>
+        <v>0.2430388103287413</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5.659584365652876</v>
+        <v>2.772925862239617</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9358024708086248</v>
+        <v>1.562558211821482</v>
       </c>
       <c r="C19">
-        <v>0.1384424603107632</v>
+        <v>0.1166159234857744</v>
       </c>
       <c r="D19">
-        <v>0.1183772439984665</v>
+        <v>0.1058565184313522</v>
       </c>
       <c r="E19">
-        <v>0.1354804350614316</v>
+        <v>0.06758680061354383</v>
       </c>
       <c r="F19">
-        <v>2.111857723036636</v>
+        <v>1.07791145343549</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1879440277535629</v>
+        <v>0.0749106492625593</v>
       </c>
       <c r="K19">
-        <v>0.5186820282750659</v>
+        <v>1.274677649259701</v>
       </c>
       <c r="L19">
-        <v>0.2615249937675372</v>
+        <v>0.2412307905707536</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5.661537898328874</v>
+        <v>2.770253086800437</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9522449512081721</v>
+        <v>1.623562452353326</v>
       </c>
       <c r="C20">
-        <v>0.1387289801362215</v>
+        <v>0.1173576087186134</v>
       </c>
       <c r="D20">
-        <v>0.1192198076490882</v>
+        <v>0.1094544931176102</v>
       </c>
       <c r="E20">
-        <v>0.1355364216177932</v>
+        <v>0.06863609411976768</v>
       </c>
       <c r="F20">
-        <v>2.109916997244909</v>
+        <v>1.087112346211796</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1875996834465177</v>
+        <v>0.07476634994761255</v>
       </c>
       <c r="K20">
-        <v>0.5332051933440312</v>
+        <v>1.325042758786623</v>
       </c>
       <c r="L20">
-        <v>0.2633742216803512</v>
+        <v>0.2493810731953232</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.652913636230409</v>
+        <v>2.78267165643129</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.007807845237124</v>
+        <v>1.829698724195509</v>
       </c>
       <c r="C21">
-        <v>0.1396958010822829</v>
+        <v>0.1198789358689112</v>
       </c>
       <c r="D21">
-        <v>0.1220949059279945</v>
+        <v>0.1216341754462604</v>
       </c>
       <c r="E21">
-        <v>0.1357770964961134</v>
+        <v>0.07225904877070022</v>
       </c>
       <c r="F21">
-        <v>2.104465132748146</v>
+        <v>1.120552337872653</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1865121434491606</v>
+        <v>0.07441080230352171</v>
       </c>
       <c r="K21">
-        <v>0.5820873152120214</v>
+        <v>1.494956625261096</v>
       </c>
       <c r="L21">
-        <v>0.269695036631262</v>
+        <v>0.2770242268955911</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.626856220217491</v>
+        <v>2.831482584005215</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.044354791962178</v>
+        <v>1.965408004703761</v>
       </c>
       <c r="C22">
-        <v>0.1403306563405735</v>
+        <v>0.1215501514704442</v>
       </c>
       <c r="D22">
-        <v>0.1240065706503941</v>
+        <v>0.129668349012789</v>
       </c>
       <c r="E22">
-        <v>0.1359734260366139</v>
+        <v>0.07470351894887983</v>
       </c>
       <c r="F22">
-        <v>2.101697680817722</v>
+        <v>1.144402864338829</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1858530138102381</v>
+        <v>0.07427879818181182</v>
       </c>
       <c r="K22">
-        <v>0.6140958834581056</v>
+        <v>1.606610057013143</v>
       </c>
       <c r="L22">
-        <v>0.2739056939459488</v>
+        <v>0.2953021538914555</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.612000486694683</v>
+        <v>2.868977377974403</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.024827896290589</v>
+        <v>1.892879404402436</v>
       </c>
       <c r="C23">
-        <v>0.1399915565689085</v>
+        <v>0.1206559523371666</v>
       </c>
       <c r="D23">
-        <v>0.122983314897624</v>
+        <v>0.1253731691950719</v>
       </c>
       <c r="E23">
-        <v>0.1358650788911113</v>
+        <v>0.07339157830007181</v>
       </c>
       <c r="F23">
-        <v>2.103101975023009</v>
+        <v>1.131483297097333</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1862000844381839</v>
+        <v>0.07433980081075831</v>
       </c>
       <c r="K23">
-        <v>0.5970068954903525</v>
+        <v>1.546957325362115</v>
       </c>
       <c r="L23">
-        <v>0.2716511385668383</v>
+        <v>0.285526310378998</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.619730401523356</v>
+        <v>2.848433040835005</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9513408008293993</v>
+        <v>1.620208269935915</v>
       </c>
       <c r="C24">
-        <v>0.1387132299188849</v>
+        <v>0.1173167720690032</v>
       </c>
       <c r="D24">
-        <v>0.1191733709794818</v>
+        <v>0.109256582596629</v>
       </c>
       <c r="E24">
-        <v>0.1355331489729252</v>
+        <v>0.06857811511401479</v>
       </c>
       <c r="F24">
-        <v>2.110019549906681</v>
+        <v>1.086597850201017</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1876183318357718</v>
+        <v>0.07477379769571257</v>
       </c>
       <c r="K24">
-        <v>0.5324073182047186</v>
+        <v>1.322274551512606</v>
       </c>
       <c r="L24">
-        <v>0.2632722643515422</v>
+        <v>0.2489325678529326</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5.653376255292017</v>
+        <v>2.781963796789768</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8731002884531733</v>
+        <v>1.329600415882851</v>
       </c>
       <c r="C25">
-        <v>0.1373478857393025</v>
+        <v>0.113805921520111</v>
       </c>
       <c r="D25">
-        <v>0.1152058520584163</v>
+        <v>0.09215066156469476</v>
       </c>
       <c r="E25">
-        <v>0.1353436344024033</v>
+        <v>0.06368974176411513</v>
       </c>
       <c r="F25">
-        <v>2.120902909898206</v>
+        <v>1.046036873770262</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.07973214163530429</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1893704493167796</v>
+        <v>0.07564746834703939</v>
       </c>
       <c r="K25">
-        <v>0.4630086826598756</v>
+        <v>1.081961230475287</v>
       </c>
       <c r="L25">
-        <v>0.2545800857199652</v>
+        <v>0.2102530406960028</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.699011697198699</v>
+        <v>2.732308419655283</v>
       </c>
     </row>
   </sheetData>
